--- a/biology/Botanique/Packham's_Triumph/Packham's_Triumph.xlsx
+++ b/biology/Botanique/Packham's_Triumph/Packham's_Triumph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Packham%27s_Triumph</t>
+          <t>Packham's_Triumph</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Packham%27s_Triumph</t>
+          <t>Packham's_Triumph</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,9 +518,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">‘Packham's Thriumph’ a été obtenue par croisement : Belle Angevine (Uwedale's Saint-Germain) X Williams Bon Chrétien, en Australie, en 1896, par M. Packham. Elle a été ensuite reçue en 1910 par la maison Barbier frères, à Orléans, envoyée des Établissements U. Wicks Nurseryman Payn Cham (Australie)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">‘Packham's Thriumph’ a été obtenue par croisement : Belle Angevine (Uwedale's Saint-Germain) X Williams Bon Chrétien, en Australie, en 1896, par M. Packham. Elle a été ensuite reçue en 1910 par la maison Barbier frères, à Orléans, envoyée des Établissements U. Wicks Nurseryman Payn Cham (Australie).
 </t>
         </is>
       </c>
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Packham%27s_Triumph</t>
+          <t>Packham's_Triumph</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,50 +553,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Cette variété doit être cultivée en formes naines libres ou palissées, tant chez l'amateur qu'en culture intensive. Sa vigueur est bonne et sa mise à fruits remarquable. Les brindilles sont chargées de fruits. 
-Excellente variété qui commence à se répandre dans le Sud-Est de la France[2].
-Sensibilité aux maladies et aux ravageurs : sensible au feu bactérien et Pseudomonas syringae[3].
-Fruit
-Le fruit de Packham's Triumph est assez gros, cydoniforme ventru, irrégulier, bosselé en son pourtour, mamelonné à la base.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété doit être cultivée en formes naines libres ou palissées, tant chez l'amateur qu'en culture intensive. Sa vigueur est bonne et sa mise à fruits remarquable. Les brindilles sont chargées de fruits. 
+Excellente variété qui commence à se répandre dans le Sud-Est de la France.
+Sensibilité aux maladies et aux ravageurs : sensible au feu bactérien et Pseudomonas syringae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Packham's_Triumph</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Packham%27s_Triumph</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de Packham's Triumph est assez gros, cydoniforme ventru, irrégulier, bosselé en son pourtour, mamelonné à la base.
 L'épiderme est vert foncé passant au jaune paille, plaqué de fauve autour du pédicelle.
 Œil : grand, mi -clos, inséré dans une cavité peu large, évasée et mamelonnée.
 Pédicelle : légèrement charnu à la base, de moyenne longueur, gros, implanté obliquement au sommet du fruit.
 Chair : blanc jaunâtre, très juteuse, très sucrée, très parfumée, légèrement acidulée.
 Qualité : bonne.
-Maturité : septembre-octobre[2].
+Maturité : septembre-octobre.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Packham%27s_Triumph</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Packham's_Triumph</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Packham%27s_Triumph</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une variété très productive, de bonne qualité gustative. Son aspect bosselé surprend. 
-La variété manque d'affinité avec les cognassiers, un greffage sur un intermédiaire est souhaitable[3].
+La variété manque d'affinité avec les cognassiers, un greffage sur un intermédiaire est souhaitable.
 </t>
         </is>
       </c>
